--- a/data/07GB.xlsx
+++ b/data/07GB.xlsx
@@ -231,8 +231,8 @@
   </sheetPr>
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B29" activeCellId="0" sqref="B2:E29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -263,157 +263,415 @@
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="D2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="D3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="D5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="D7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="D8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="D9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="D10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="D11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="D12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="D13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="D14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="B15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="B16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="B17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="B18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="B19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="B20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="B21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="B22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="B23" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="B24" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="B25" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="B26" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="B27" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="B28" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="B29" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>310</v>
+        <v>84</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>305</v>
+        <v>84</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/07GB.xlsx
+++ b/data/07GB.xlsx
@@ -232,7 +232,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15:C19"/>
+      <selection pane="topLeft" activeCell="C30" activeCellId="0" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -631,10 +631,10 @@
         <v>80</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" s="0" t="n">
         <v>0</v>
@@ -648,10 +648,10 @@
         <v>81</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" s="0" t="n">
         <v>0</v>
@@ -665,10 +665,10 @@
         <v>84</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" s="0" t="n">
         <v>0</v>

--- a/data/07GB.xlsx
+++ b/data/07GB.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t xml:space="preserve">2020-03-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-03-26</t>
   </si>
 </sst>
 </file>
@@ -229,10 +232,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C30" activeCellId="0" sqref="C30"/>
+      <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31:E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -674,6 +677,23 @@
         <v>0</v>
       </c>
     </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>83</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
